--- a/Permutation Feature Importance features.xlsx
+++ b/Permutation Feature Importance features.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siddharth\Documents\Cranfield_Thesis_drafts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAFFE2C-D188-4C53-BAA2-C85914259F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0427AE0-2D7D-4F6A-8B05-05807A04773E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="6" activeTab="11" xr2:uid="{10F68605-3152-4C27-AE4D-E4926B335D53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{10F68605-3152-4C27-AE4D-E4926B335D53}"/>
   </bookViews>
   <sheets>
-    <sheet name="Rifampicin" sheetId="1" r:id="rId1"/>
-    <sheet name="Isoniazid" sheetId="2" r:id="rId2"/>
-    <sheet name="Ethambutol" sheetId="3" r:id="rId3"/>
-    <sheet name="Pyrazinamide" sheetId="4" r:id="rId4"/>
-    <sheet name="Streptomycin" sheetId="5" r:id="rId5"/>
-    <sheet name="Amikacin" sheetId="6" r:id="rId6"/>
-    <sheet name="Capreomycin" sheetId="7" r:id="rId7"/>
-    <sheet name="Kanamycin" sheetId="8" r:id="rId8"/>
-    <sheet name="ofloxacin" sheetId="10" r:id="rId9"/>
-    <sheet name="moxifloxacin" sheetId="11" r:id="rId10"/>
-    <sheet name="levofloxacin" sheetId="9" r:id="rId11"/>
-    <sheet name="rifabutin" sheetId="12" r:id="rId12"/>
+    <sheet name="Description" sheetId="13" r:id="rId1"/>
+    <sheet name="Rifampicin" sheetId="1" r:id="rId2"/>
+    <sheet name="Isoniazid" sheetId="2" r:id="rId3"/>
+    <sheet name="Ethambutol" sheetId="3" r:id="rId4"/>
+    <sheet name="Pyrazinamide" sheetId="4" r:id="rId5"/>
+    <sheet name="Streptomycin" sheetId="5" r:id="rId6"/>
+    <sheet name="Amikacin" sheetId="6" r:id="rId7"/>
+    <sheet name="Capreomycin" sheetId="7" r:id="rId8"/>
+    <sheet name="Kanamycin" sheetId="8" r:id="rId9"/>
+    <sheet name="ofloxacin" sheetId="10" r:id="rId10"/>
+    <sheet name="moxifloxacin" sheetId="11" r:id="rId11"/>
+    <sheet name="levofloxacin" sheetId="9" r:id="rId12"/>
+    <sheet name="rifabutin" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="312">
   <si>
     <t>Position</t>
   </si>
@@ -953,6 +954,36 @@
   </si>
   <si>
     <t>p.Pro123Leu</t>
+  </si>
+  <si>
+    <t>This workbook details the feature importances for predictive performance across all the different drugs profiled</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>Mean reduction in performance upon randomly permuting the feature in question over 20 iterations</t>
+  </si>
+  <si>
+    <t>Genomic position  of feature/variant in question according to the H37Rv reference genome</t>
+  </si>
+  <si>
+    <t>Type of variant according to the SNPEff annotation</t>
+  </si>
+  <si>
+    <t>The gene which the variant either resides within or affects (in case of intergenic)</t>
+  </si>
+  <si>
+    <t>Nucleotide substitution/Insertion/Deletion at the genomic position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The  amino acid substituiton resulting from the genetic variant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allele Frequency </t>
+  </si>
+  <si>
+    <t>Allele frequency of the variant in question according to vcf file statistics</t>
   </si>
 </sst>
 </file>
@@ -960,8 +991,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="#,##0.000_ ;\-#,##0.000\ "/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000_ ;\-#,##0.000\ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -1007,7 +1038,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1018,7 +1049,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1033,7 +1064,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1042,13 +1073,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1062,6 +1093,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1376,340 +1419,440 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32B4FE8-8F3F-4035-AC3B-543C61735CBC}">
-  <dimension ref="A1:G21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A19FA6-F705-49E2-BD5A-0E4097B50B4E}">
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G4:G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.453125" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="22.453125" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" customWidth="1"/>
-    <col min="6" max="6" width="19.453125" customWidth="1"/>
-    <col min="7" max="7" width="18.36328125" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B4" s="20"/>
+    </row>
+    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B6" s="21" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="B8" s="21" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>311</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="A4:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F104B0D1-24A5-405D-B322-BABD1574E8A3}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="A2:G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.6328125" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="23.1796875" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" customWidth="1"/>
+    <col min="7" max="7" width="15.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <v>0.1928</v>
+        <v>0.1603</v>
       </c>
       <c r="B2" s="1">
-        <v>761155</v>
+        <v>7582</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="G2" s="4">
-        <v>0.18811900000000001</v>
+        <v>4.0116800000000001E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>1.9699999999999999E-2</v>
+        <v>7.4399999999999994E-2</v>
       </c>
       <c r="B3" s="1">
-        <v>761139</v>
+        <v>7570</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="G3" s="4">
-        <v>1.30844E-2</v>
+        <v>2.7388800000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <v>1.5800000000000002E-2</v>
+        <v>2.98E-2</v>
       </c>
       <c r="B4" s="1">
-        <v>761110</v>
+        <v>7581</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>226</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>227</v>
       </c>
       <c r="G4" s="4">
-        <v>2.3801900000000001E-2</v>
+        <v>8.0076699999999997E-3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="B5" s="1">
-        <v>2155168</v>
+        <v>7572</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>228</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>229</v>
       </c>
       <c r="G5" s="4">
-        <v>0.26412200000000002</v>
+        <v>5.62526E-3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <v>4.0000000000000001E-3</v>
+        <v>4.3E-3</v>
       </c>
       <c r="B6" s="1">
-        <v>4247429</v>
+        <v>761140</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G6" s="4">
-        <v>7.5698600000000005E-2</v>
+        <v>4.2077099999999999E-3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
-        <v>3.2000000000000002E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="B7" s="1">
-        <v>4247431</v>
+        <v>781822</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="G7" s="4">
-        <v>4.03974E-2</v>
+        <v>2.5087700000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
-        <v>3.0000000000000001E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="B8" s="1">
-        <v>760314</v>
+        <v>5520</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="G8" s="4">
-        <v>1.9934599999999999E-3</v>
+        <v>2.55955E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
-        <v>2.0999999999999999E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="B9" s="1">
-        <v>761140</v>
+        <v>4247729</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="G9" s="4">
-        <v>4.2077099999999999E-3</v>
+        <v>4.8048199999999996E-3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <v>1.2999999999999999E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="B10" s="1">
-        <v>761109</v>
+        <v>4266930</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>251</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="F10" s="1"/>
       <c r="G10" s="4">
-        <v>1.0016000000000001E-2</v>
+        <v>3.3091499999999999E-3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <v>1.2999999999999999E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="B11" s="1">
-        <v>761095</v>
+        <v>4407620</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>28</v>
+        <v>253</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>29</v>
+        <v>254</v>
       </c>
       <c r="G11" s="4">
-        <v>5.9222299999999997E-3</v>
+        <v>2.57801E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="B12" s="1">
-        <v>1473246</v>
+        <v>3448348</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>255</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="1"/>
+        <v>256</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>257</v>
+      </c>
       <c r="G12" s="4">
-        <v>4.4944499999999998E-2</v>
+        <v>3.33008E-3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <v>1.1000000000000001E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="B13" s="1">
-        <v>7582</v>
+        <v>7222</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>34</v>
+        <v>258</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>35</v>
+        <v>259</v>
       </c>
       <c r="G13" s="4">
-        <v>4.0116800000000001E-2</v>
+        <v>2.55955E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
-        <v>1E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="B14" s="1">
-        <v>1673425</v>
+        <v>4338371</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="1"/>
+        <v>260</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="G14" s="4">
-        <v>7.6551800000000003E-2</v>
+        <v>1.5961199999999998E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -1717,154 +1860,156 @@
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="B15" s="1">
-        <v>759746</v>
+        <v>3073679</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>38</v>
+        <v>262</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>39</v>
+        <v>263</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="4">
-        <v>0.11443200000000001</v>
+        <v>3.2956499999999998E-3</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <v>5.9999999999999995E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="B16" s="1">
-        <v>4408087</v>
+        <v>2518919</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="G16" s="4">
-        <v>6.0835699999999999E-3</v>
+        <v>4.81013E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <v>4.0000000000000002E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="B17" s="1">
-        <v>761128</v>
+        <v>8040</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="G17" s="4">
-        <v>1.1363E-3</v>
+        <v>4.8102199999999998E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <v>4.0000000000000002E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="B18" s="1">
-        <v>1674481</v>
+        <v>2289252</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="F18" s="1"/>
       <c r="G18" s="4">
-        <v>6.0999899999999996E-3</v>
+        <v>8.2390099999999997E-3</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <v>2.9999999999999997E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="B19" s="1">
-        <v>1673432</v>
+        <v>2518076</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>36</v>
+        <v>264</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="1"/>
+        <v>265</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="G19" s="4">
-        <v>6.7193000000000001E-3</v>
+        <v>8.9943200000000001E-2</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <v>2.9999999999999997E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="B20" s="1">
-        <v>6140</v>
+        <v>1674782</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>51</v>
+        <v>267</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>52</v>
+        <v>268</v>
       </c>
       <c r="G20" s="4">
-        <v>2.8466100000000001E-2</v>
+        <v>5.7809200000000002E-3</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="12">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="B21" s="2">
-        <v>2726142</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="12">
-        <v>1.5552400000000001E-3</v>
+      <c r="A21" s="4">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="B21" s="1">
+        <v>760115</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G21" s="4">
+        <v>8.9923299999999998E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1872,7 +2017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6ECC90E-7065-4D90-9C45-720BFC7A36A4}">
   <dimension ref="A1:G21"/>
   <sheetViews>
@@ -2368,7 +2513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29267264-8A01-4661-81C3-8DC7444C9866}">
   <dimension ref="A1:G21"/>
   <sheetViews>
@@ -2868,12 +3013,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC015D49-3CFA-4C43-AC77-A65C62D8C60E}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3371,11 +3516,508 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32B4FE8-8F3F-4035-AC3B-543C61735CBC}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="22.453125" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" customWidth="1"/>
+    <col min="6" max="6" width="19.453125" customWidth="1"/>
+    <col min="7" max="7" width="18.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>0.1928</v>
+      </c>
+      <c r="B2" s="1">
+        <v>761155</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.18811900000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>1.9699999999999999E-2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>761139</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1.30844E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>761110</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2.3801900000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2155168</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.26412200000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4247429</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="4">
+        <v>7.5698600000000005E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4247431</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="4">
+        <v>4.03974E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>760314</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1.9934599999999999E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>761140</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="4">
+        <v>4.2077099999999999E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>761109</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1.0016000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>761095</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="4">
+        <v>5.9222299999999997E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1473246</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="4">
+        <v>4.4944499999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>7582</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="4">
+        <v>4.0116800000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1673425</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="4">
+        <v>7.6551800000000003E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="B15" s="1">
+        <v>759746</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="4">
+        <v>0.11443200000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="B16" s="1">
+        <v>4408087</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="4">
+        <v>6.0835699999999999E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="B17" s="1">
+        <v>761128</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1.1363E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1674481</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="4">
+        <v>6.0999899999999996E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1673432</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="4">
+        <v>6.7193000000000001E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="B20" s="1">
+        <v>6140</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="4">
+        <v>2.8466100000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="12">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2726142</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="12">
+        <v>1.5552400000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48080621-2E77-4661-93EC-AFBF6BEACC10}">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3857,7 +4499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0114FD-69FD-4B72-8D82-8A2D0EE4ED9F}">
   <dimension ref="A1:G20"/>
   <sheetViews>
@@ -4329,7 +4971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C3D0AE-D171-4BB8-8246-B6923C95B71B}">
   <dimension ref="A1:G21"/>
   <sheetViews>
@@ -4346,7 +4988,7 @@
     <col min="7" max="7" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>53</v>
       </c>
@@ -4826,7 +5468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74868EF6-580A-438D-8DA5-5B72B980DF5F}">
   <dimension ref="A1:G21"/>
   <sheetViews>
@@ -5317,7 +5959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3D88BE-8E63-42A9-84C2-9ED50C6B701B}">
   <dimension ref="A1:G21"/>
   <sheetViews>
@@ -5330,7 +5972,7 @@
     <col min="4" max="4" width="21.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>53</v>
       </c>
@@ -5808,7 +6450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC4518F-47D2-4179-8A10-4189C934D93D}">
   <dimension ref="A1:G21"/>
   <sheetViews>
@@ -6302,7 +6944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0752B62A-C596-4BB3-B9CD-E479B12659EE}">
   <dimension ref="A1:G21"/>
   <sheetViews>
@@ -6321,7 +6963,7 @@
     <col min="7" max="7" width="15.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>53</v>
       </c>
@@ -6790,505 +7432,6 @@
       </c>
       <c r="G21" s="4">
         <v>3.57414E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F104B0D1-24A5-405D-B322-BABD1574E8A3}">
-  <dimension ref="A1:G21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="A2:G21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="13.6328125" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="23.1796875" customWidth="1"/>
-    <col min="6" max="6" width="14.1796875" customWidth="1"/>
-    <col min="7" max="7" width="15.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
-        <v>0.1603</v>
-      </c>
-      <c r="B2" s="1">
-        <v>7582</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="4">
-        <v>4.0116800000000001E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
-        <v>7.4399999999999994E-2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>7570</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G3" s="4">
-        <v>2.7388800000000001E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
-        <v>2.98E-2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>7581</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G4" s="4">
-        <v>8.0076699999999997E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
-        <v>5.4000000000000003E-3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>7572</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G5" s="4">
-        <v>5.62526E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
-        <v>4.3E-3</v>
-      </c>
-      <c r="B6" s="1">
-        <v>761140</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="4">
-        <v>4.2077099999999999E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
-        <v>2.8999999999999998E-3</v>
-      </c>
-      <c r="B7" s="1">
-        <v>781822</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G7" s="4">
-        <v>2.5087700000000001E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="B8" s="1">
-        <v>5520</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G8" s="4">
-        <v>2.55955E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="B9" s="1">
-        <v>4247729</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G9" s="4">
-        <v>4.8048199999999996E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>4266930</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="4">
-        <v>3.3091499999999999E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="B11" s="1">
-        <v>4407620</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="G11" s="4">
-        <v>2.57801E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="B12" s="1">
-        <v>3448348</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="G12" s="4">
-        <v>3.33008E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
-        <v>1.2999999999999999E-3</v>
-      </c>
-      <c r="B13" s="1">
-        <v>7222</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G13" s="4">
-        <v>2.55955E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="B14" s="1">
-        <v>4338371</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="G14" s="4">
-        <v>1.5961199999999998E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="B15" s="1">
-        <v>3073679</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="4">
-        <v>3.2956499999999998E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="4">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="B16" s="1">
-        <v>2518919</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G16" s="4">
-        <v>4.81013E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="B17" s="1">
-        <v>8040</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G17" s="4">
-        <v>4.8102199999999998E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="4">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="B18" s="1">
-        <v>2289252</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="4">
-        <v>8.2390099999999997E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="4">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="B19" s="1">
-        <v>2518076</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="G19" s="4">
-        <v>8.9943200000000001E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="4">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1674782</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="G20" s="4">
-        <v>5.7809200000000002E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="4">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="B21" s="1">
-        <v>760115</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="G21" s="4">
-        <v>8.9923299999999998E-2</v>
       </c>
     </row>
   </sheetData>
